--- a/src/querryRunner/stores/exportstoreprev.xlsx
+++ b/src/querryRunner/stores/exportstoreprev.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Desktop\New folder (4)\Zopper\src\querryRunner\stores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharat Kumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6A853B-87FF-49EA-99D9-8E0140EE55B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1009</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6029" uniqueCount="2223">
   <si>
     <t>Store_ID</t>
   </si>
@@ -6625,12 +6624,90 @@
   </si>
   <si>
     <t>Shubhanshu , Avneesh ,Vikash Dubey , Ashutosh</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Rajpur Road</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Mall of Dehradun</t>
+  </si>
+  <si>
+    <t>Croma -Haridwar-Ranipur Mod</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Chakrata road</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Saharanpur Road</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Haridwar</t>
+  </si>
+  <si>
+    <t>store_001009</t>
+  </si>
+  <si>
+    <t>store_001010</t>
+  </si>
+  <si>
+    <t>store_001011</t>
+  </si>
+  <si>
+    <t>store_001012</t>
+  </si>
+  <si>
+    <t>store_001013</t>
+  </si>
+  <si>
+    <t>executive_00020 , executive_00007</t>
+  </si>
+  <si>
+    <t>Suraj , Ayush</t>
+  </si>
+  <si>
+    <t>Croma -Bhubaneswar-Janpath Road</t>
+  </si>
+  <si>
+    <t>Croma -Cuttack-College Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croma -Bhubaneswar-Patia </t>
+  </si>
+  <si>
+    <t>Croma -Bhubaneswar-Lewis Road</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Cuttack</t>
+  </si>
+  <si>
+    <t>store_001014</t>
+  </si>
+  <si>
+    <t>store_001015</t>
+  </si>
+  <si>
+    <t>store_001016</t>
+  </si>
+  <si>
+    <t>store_001017</t>
+  </si>
+  <si>
+    <t>Geet , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>executive_00021 ,executive_00003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7023,23 +7100,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1009"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1006" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1015" sqref="F1015"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7059,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A65" si="0">"store_" &amp; TEXT(ROW()-1,"000000")</f>
         <v>store_000001</v>
@@ -7080,7 +7159,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000002</v>
@@ -7101,7 +7180,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000003</v>
@@ -7122,7 +7201,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000004</v>
@@ -7143,7 +7222,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000005</v>
@@ -7164,7 +7243,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000006</v>
@@ -7185,7 +7264,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000007</v>
@@ -7206,7 +7285,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000008</v>
@@ -7227,7 +7306,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000009</v>
@@ -7248,7 +7327,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000010</v>
@@ -7269,7 +7348,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000011</v>
@@ -7290,7 +7369,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000012</v>
@@ -7311,7 +7390,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000013</v>
@@ -7332,7 +7411,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000014</v>
@@ -7353,7 +7432,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000015</v>
@@ -7374,7 +7453,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000016</v>
@@ -7395,7 +7474,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000017</v>
@@ -7416,7 +7495,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000018</v>
@@ -7437,7 +7516,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000019</v>
@@ -7458,7 +7537,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000020</v>
@@ -7479,7 +7558,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000021</v>
@@ -7500,7 +7579,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000022</v>
@@ -7521,7 +7600,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000023</v>
@@ -7542,7 +7621,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000024</v>
@@ -7563,7 +7642,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000025</v>
@@ -7584,7 +7663,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000026</v>
@@ -7605,7 +7684,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000027</v>
@@ -7626,7 +7705,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000028</v>
@@ -7647,7 +7726,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000029</v>
@@ -7668,7 +7747,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000030</v>
@@ -7689,7 +7768,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000031</v>
@@ -7710,7 +7789,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000032</v>
@@ -7731,7 +7810,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000033</v>
@@ -7752,7 +7831,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000034</v>
@@ -7773,7 +7852,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000035</v>
@@ -7794,7 +7873,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000036</v>
@@ -7815,7 +7894,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000037</v>
@@ -7836,7 +7915,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000038</v>
@@ -7857,7 +7936,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000039</v>
@@ -7878,7 +7957,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000040</v>
@@ -7899,7 +7978,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000041</v>
@@ -7920,7 +7999,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000042</v>
@@ -7941,7 +8020,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000043</v>
@@ -7962,7 +8041,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000044</v>
@@ -7983,7 +8062,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000045</v>
@@ -8004,7 +8083,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000046</v>
@@ -8025,7 +8104,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000047</v>
@@ -8046,7 +8125,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000048</v>
@@ -8067,7 +8146,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000049</v>
@@ -8088,7 +8167,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000050</v>
@@ -8109,7 +8188,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000051</v>
@@ -8130,7 +8209,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000052</v>
@@ -8151,7 +8230,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000053</v>
@@ -8172,7 +8251,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000054</v>
@@ -8193,7 +8272,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000055</v>
@@ -8214,7 +8293,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000056</v>
@@ -8235,7 +8314,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000057</v>
@@ -8256,7 +8335,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000058</v>
@@ -8277,7 +8356,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000059</v>
@@ -8298,7 +8377,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000060</v>
@@ -8319,7 +8398,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000061</v>
@@ -8340,7 +8419,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000062</v>
@@ -8361,7 +8440,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000063</v>
@@ -8382,7 +8461,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>store_000064</v>
@@ -8403,7 +8482,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f t="shared" ref="A66:A80" si="1">"store_" &amp; TEXT(ROW()-1,"000000")</f>
         <v>store_000065</v>
@@ -8424,7 +8503,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000066</v>
@@ -8445,7 +8524,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000067</v>
@@ -8466,7 +8545,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000068</v>
@@ -8487,7 +8566,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000069</v>
@@ -8508,7 +8587,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000070</v>
@@ -8529,7 +8608,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000071</v>
@@ -8550,7 +8629,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000072</v>
@@ -8571,7 +8650,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000073</v>
@@ -8592,7 +8671,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000074</v>
@@ -8613,7 +8692,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000075</v>
@@ -8634,7 +8713,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000076</v>
@@ -8655,7 +8734,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000077</v>
@@ -8676,7 +8755,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000078</v>
@@ -8697,7 +8776,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>store_000079</v>
@@ -8718,7 +8797,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -8738,7 +8817,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -8758,7 +8837,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -8778,7 +8857,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -8798,7 +8877,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -8818,7 +8897,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
@@ -8838,7 +8917,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
@@ -8858,7 +8937,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>14</v>
       </c>
@@ -8878,7 +8957,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>15</v>
       </c>
@@ -8898,7 +8977,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -8918,7 +8997,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>17</v>
       </c>
@@ -8938,7 +9017,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>19</v>
       </c>
@@ -8958,7 +9037,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>20</v>
       </c>
@@ -8978,7 +9057,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>21</v>
       </c>
@@ -8998,7 +9077,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>22</v>
       </c>
@@ -9018,7 +9097,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>24</v>
       </c>
@@ -9038,7 +9117,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>25</v>
       </c>
@@ -9058,7 +9137,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>26</v>
       </c>
@@ -9078,7 +9157,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>27</v>
       </c>
@@ -9098,7 +9177,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>28</v>
       </c>
@@ -9118,7 +9197,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>29</v>
       </c>
@@ -9138,7 +9217,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>30</v>
       </c>
@@ -9158,7 +9237,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>31</v>
       </c>
@@ -9178,7 +9257,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>32</v>
       </c>
@@ -9198,7 +9277,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>33</v>
       </c>
@@ -9218,7 +9297,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>34</v>
       </c>
@@ -9238,7 +9317,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -9258,7 +9337,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>36</v>
       </c>
@@ -9278,7 +9357,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>38</v>
       </c>
@@ -9298,7 +9377,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>39</v>
       </c>
@@ -9318,7 +9397,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>40</v>
       </c>
@@ -9338,7 +9417,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
@@ -9358,7 +9437,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>42</v>
       </c>
@@ -9378,7 +9457,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
@@ -9398,7 +9477,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>44</v>
       </c>
@@ -9418,7 +9497,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>45</v>
       </c>
@@ -9438,7 +9517,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>47</v>
       </c>
@@ -9458,7 +9537,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>48</v>
       </c>
@@ -9478,7 +9557,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>49</v>
       </c>
@@ -9498,7 +9577,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>50</v>
       </c>
@@ -9518,7 +9597,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>51</v>
       </c>
@@ -9538,7 +9617,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -9558,7 +9637,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>53</v>
       </c>
@@ -9578,7 +9657,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>54</v>
       </c>
@@ -9598,7 +9677,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>56</v>
       </c>
@@ -9618,7 +9697,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>57</v>
       </c>
@@ -9638,7 +9717,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>58</v>
       </c>
@@ -9658,7 +9737,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>59</v>
       </c>
@@ -9678,7 +9757,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>60</v>
       </c>
@@ -9698,7 +9777,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>61</v>
       </c>
@@ -9718,7 +9797,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>62</v>
       </c>
@@ -9738,7 +9817,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>63</v>
       </c>
@@ -9758,7 +9837,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>64</v>
       </c>
@@ -9778,7 +9857,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>65</v>
       </c>
@@ -9798,7 +9877,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>66</v>
       </c>
@@ -9818,7 +9897,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>67</v>
       </c>
@@ -9838,7 +9917,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>68</v>
       </c>
@@ -9858,7 +9937,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>69</v>
       </c>
@@ -9878,7 +9957,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>70</v>
       </c>
@@ -9898,7 +9977,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>71</v>
       </c>
@@ -9918,7 +9997,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>72</v>
       </c>
@@ -9938,7 +10017,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>73</v>
       </c>
@@ -9958,7 +10037,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>74</v>
       </c>
@@ -9978,7 +10057,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>75</v>
       </c>
@@ -9998,7 +10077,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>76</v>
       </c>
@@ -10018,7 +10097,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>77</v>
       </c>
@@ -10038,7 +10117,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>78</v>
       </c>
@@ -10058,7 +10137,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>79</v>
       </c>
@@ -10078,7 +10157,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>80</v>
       </c>
@@ -10098,7 +10177,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>81</v>
       </c>
@@ -10118,7 +10197,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>82</v>
       </c>
@@ -10138,7 +10217,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>83</v>
       </c>
@@ -10158,7 +10237,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>84</v>
       </c>
@@ -10178,7 +10257,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>85</v>
       </c>
@@ -10198,7 +10277,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>86</v>
       </c>
@@ -10218,7 +10297,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>87</v>
       </c>
@@ -10238,7 +10317,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>88</v>
       </c>
@@ -10258,7 +10337,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>89</v>
       </c>
@@ -10278,7 +10357,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>90</v>
       </c>
@@ -10298,7 +10377,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>91</v>
       </c>
@@ -10318,7 +10397,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>92</v>
       </c>
@@ -10338,7 +10417,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -10358,7 +10437,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>94</v>
       </c>
@@ -10378,7 +10457,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>95</v>
       </c>
@@ -10398,7 +10477,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>96</v>
       </c>
@@ -10418,7 +10497,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>97</v>
       </c>
@@ -10438,7 +10517,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>98</v>
       </c>
@@ -10458,7 +10537,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>99</v>
       </c>
@@ -10478,7 +10557,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>100</v>
       </c>
@@ -10498,7 +10577,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>101</v>
       </c>
@@ -10518,7 +10597,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>102</v>
       </c>
@@ -10538,7 +10617,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>103</v>
       </c>
@@ -10558,7 +10637,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>104</v>
       </c>
@@ -10578,7 +10657,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>105</v>
       </c>
@@ -10598,7 +10677,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>106</v>
       </c>
@@ -10618,7 +10697,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>107</v>
       </c>
@@ -10638,7 +10717,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>108</v>
       </c>
@@ -10658,7 +10737,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>109</v>
       </c>
@@ -10678,7 +10757,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>110</v>
       </c>
@@ -10698,7 +10777,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>111</v>
       </c>
@@ -10718,7 +10797,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>112</v>
       </c>
@@ -10738,7 +10817,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>113</v>
       </c>
@@ -10758,7 +10837,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>114</v>
       </c>
@@ -10778,7 +10857,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>115</v>
       </c>
@@ -10798,7 +10877,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>116</v>
       </c>
@@ -10818,7 +10897,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>117</v>
       </c>
@@ -10838,7 +10917,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>118</v>
       </c>
@@ -10858,7 +10937,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>119</v>
       </c>
@@ -10878,7 +10957,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>120</v>
       </c>
@@ -10898,7 +10977,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>121</v>
       </c>
@@ -10918,7 +10997,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>122</v>
       </c>
@@ -10938,7 +11017,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>123</v>
       </c>
@@ -10958,7 +11037,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>124</v>
       </c>
@@ -10978,7 +11057,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>125</v>
       </c>
@@ -10998,7 +11077,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>126</v>
       </c>
@@ -11018,7 +11097,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>127</v>
       </c>
@@ -11038,7 +11117,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>128</v>
       </c>
@@ -11058,7 +11137,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>129</v>
       </c>
@@ -11078,7 +11157,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>130</v>
       </c>
@@ -11098,7 +11177,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>131</v>
       </c>
@@ -11118,7 +11197,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>132</v>
       </c>
@@ -11138,7 +11217,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>133</v>
       </c>
@@ -11158,7 +11237,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>134</v>
       </c>
@@ -11178,7 +11257,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>135</v>
       </c>
@@ -11198,7 +11277,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>136</v>
       </c>
@@ -11218,7 +11297,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>137</v>
       </c>
@@ -11238,7 +11317,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>138</v>
       </c>
@@ -11258,7 +11337,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>139</v>
       </c>
@@ -11278,7 +11357,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>140</v>
       </c>
@@ -11298,7 +11377,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>141</v>
       </c>
@@ -11318,7 +11397,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>142</v>
       </c>
@@ -11338,7 +11417,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>143</v>
       </c>
@@ -11358,7 +11437,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>145</v>
       </c>
@@ -11378,7 +11457,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>146</v>
       </c>
@@ -11398,7 +11477,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>147</v>
       </c>
@@ -11418,7 +11497,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>148</v>
       </c>
@@ -11438,7 +11517,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>149</v>
       </c>
@@ -11458,7 +11537,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>150</v>
       </c>
@@ -11478,7 +11557,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>151</v>
       </c>
@@ -11498,7 +11577,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>153</v>
       </c>
@@ -11518,7 +11597,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>155</v>
       </c>
@@ -11538,7 +11617,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>156</v>
       </c>
@@ -11558,7 +11637,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>158</v>
       </c>
@@ -11578,7 +11657,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>159</v>
       </c>
@@ -11598,7 +11677,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>160</v>
       </c>
@@ -11618,7 +11697,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>161</v>
       </c>
@@ -11638,7 +11717,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>162</v>
       </c>
@@ -11658,7 +11737,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>164</v>
       </c>
@@ -11678,7 +11757,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>165</v>
       </c>
@@ -11698,7 +11777,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>167</v>
       </c>
@@ -11718,7 +11797,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>168</v>
       </c>
@@ -11738,7 +11817,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>169</v>
       </c>
@@ -11758,7 +11837,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>170</v>
       </c>
@@ -11778,7 +11857,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>172</v>
       </c>
@@ -11798,7 +11877,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>173</v>
       </c>
@@ -11818,7 +11897,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>175</v>
       </c>
@@ -11838,7 +11917,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>177</v>
       </c>
@@ -11858,7 +11937,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>179</v>
       </c>
@@ -11878,7 +11957,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>181</v>
       </c>
@@ -11898,7 +11977,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>183</v>
       </c>
@@ -11918,7 +11997,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>185</v>
       </c>
@@ -11938,7 +12017,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>187</v>
       </c>
@@ -11958,7 +12037,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>188</v>
       </c>
@@ -11978,7 +12057,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>190</v>
       </c>
@@ -11998,7 +12077,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>191</v>
       </c>
@@ -12018,7 +12097,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>192</v>
       </c>
@@ -12038,7 +12117,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>193</v>
       </c>
@@ -12058,7 +12137,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>194</v>
       </c>
@@ -12078,7 +12157,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>195</v>
       </c>
@@ -12098,7 +12177,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>196</v>
       </c>
@@ -12118,7 +12197,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>198</v>
       </c>
@@ -12138,7 +12217,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>199</v>
       </c>
@@ -12158,7 +12237,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>200</v>
       </c>
@@ -12178,7 +12257,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>201</v>
       </c>
@@ -12198,7 +12277,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>202</v>
       </c>
@@ -12218,7 +12297,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>203</v>
       </c>
@@ -12238,7 +12317,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>205</v>
       </c>
@@ -12258,7 +12337,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>206</v>
       </c>
@@ -12278,7 +12357,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>207</v>
       </c>
@@ -12298,7 +12377,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>208</v>
       </c>
@@ -12318,7 +12397,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>209</v>
       </c>
@@ -12338,7 +12417,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>210</v>
       </c>
@@ -12358,7 +12437,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>211</v>
       </c>
@@ -12378,7 +12457,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>212</v>
       </c>
@@ -12398,7 +12477,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>213</v>
       </c>
@@ -12418,7 +12497,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>214</v>
       </c>
@@ -12438,7 +12517,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>215</v>
       </c>
@@ -12458,7 +12537,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>216</v>
       </c>
@@ -12478,7 +12557,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>217</v>
       </c>
@@ -12498,7 +12577,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>218</v>
       </c>
@@ -12518,7 +12597,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>219</v>
       </c>
@@ -12538,7 +12617,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>220</v>
       </c>
@@ -12558,7 +12637,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>221</v>
       </c>
@@ -12578,7 +12657,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>222</v>
       </c>
@@ -12598,7 +12677,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>223</v>
       </c>
@@ -12618,7 +12697,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>224</v>
       </c>
@@ -12638,7 +12717,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>225</v>
       </c>
@@ -12658,7 +12737,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>226</v>
       </c>
@@ -12678,7 +12757,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>227</v>
       </c>
@@ -12698,7 +12777,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>228</v>
       </c>
@@ -12718,7 +12797,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>229</v>
       </c>
@@ -12738,7 +12817,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>231</v>
       </c>
@@ -12758,7 +12837,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>232</v>
       </c>
@@ -12778,7 +12857,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>233</v>
       </c>
@@ -12798,7 +12877,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>234</v>
       </c>
@@ -12818,7 +12897,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>235</v>
       </c>
@@ -12838,7 +12917,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>237</v>
       </c>
@@ -12858,7 +12937,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>238</v>
       </c>
@@ -12878,7 +12957,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>239</v>
       </c>
@@ -12898,7 +12977,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>240</v>
       </c>
@@ -12918,7 +12997,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>241</v>
       </c>
@@ -12938,7 +13017,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>242</v>
       </c>
@@ -12958,7 +13037,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>243</v>
       </c>
@@ -12978,7 +13057,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>244</v>
       </c>
@@ -12998,7 +13077,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>245</v>
       </c>
@@ -13018,7 +13097,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>246</v>
       </c>
@@ -13038,7 +13117,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>247</v>
       </c>
@@ -13058,7 +13137,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>248</v>
       </c>
@@ -13078,7 +13157,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>249</v>
       </c>
@@ -13098,7 +13177,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>250</v>
       </c>
@@ -13118,7 +13197,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>251</v>
       </c>
@@ -13138,7 +13217,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>252</v>
       </c>
@@ -13158,7 +13237,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>253</v>
       </c>
@@ -13178,7 +13257,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>254</v>
       </c>
@@ -13198,7 +13277,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>255</v>
       </c>
@@ -13218,7 +13297,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>256</v>
       </c>
@@ -13238,7 +13317,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>257</v>
       </c>
@@ -13258,7 +13337,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>258</v>
       </c>
@@ -13278,7 +13357,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>259</v>
       </c>
@@ -13298,7 +13377,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>260</v>
       </c>
@@ -13318,7 +13397,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>261</v>
       </c>
@@ -13338,7 +13417,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>262</v>
       </c>
@@ -13358,7 +13437,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>263</v>
       </c>
@@ -13378,7 +13457,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>264</v>
       </c>
@@ -13398,7 +13477,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>265</v>
       </c>
@@ -13418,7 +13497,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>266</v>
       </c>
@@ -13438,7 +13517,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>267</v>
       </c>
@@ -13458,7 +13537,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>268</v>
       </c>
@@ -13478,7 +13557,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>269</v>
       </c>
@@ -13498,7 +13577,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>270</v>
       </c>
@@ -13518,7 +13597,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>271</v>
       </c>
@@ -13538,7 +13617,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>272</v>
       </c>
@@ -13558,7 +13637,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>273</v>
       </c>
@@ -13578,7 +13657,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>274</v>
       </c>
@@ -13598,7 +13677,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>275</v>
       </c>
@@ -13618,7 +13697,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>276</v>
       </c>
@@ -13638,7 +13717,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>277</v>
       </c>
@@ -13658,7 +13737,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>278</v>
       </c>
@@ -13678,7 +13757,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>279</v>
       </c>
@@ -13698,7 +13777,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>280</v>
       </c>
@@ -13718,7 +13797,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>281</v>
       </c>
@@ -13738,7 +13817,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>282</v>
       </c>
@@ -13758,7 +13837,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>283</v>
       </c>
@@ -13778,7 +13857,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>284</v>
       </c>
@@ -13798,7 +13877,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>285</v>
       </c>
@@ -13818,7 +13897,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>286</v>
       </c>
@@ -13838,7 +13917,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>288</v>
       </c>
@@ -13858,7 +13937,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>290</v>
       </c>
@@ -13878,7 +13957,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>292</v>
       </c>
@@ -13898,7 +13977,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>294</v>
       </c>
@@ -13918,7 +13997,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>295</v>
       </c>
@@ -13938,7 +14017,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>297</v>
       </c>
@@ -13958,7 +14037,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>299</v>
       </c>
@@ -13978,7 +14057,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>300</v>
       </c>
@@ -13998,7 +14077,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>301</v>
       </c>
@@ -14018,7 +14097,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>303</v>
       </c>
@@ -14038,7 +14117,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>305</v>
       </c>
@@ -14058,7 +14137,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>306</v>
       </c>
@@ -14078,7 +14157,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>308</v>
       </c>
@@ -14098,7 +14177,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>310</v>
       </c>
@@ -14118,7 +14197,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>311</v>
       </c>
@@ -14138,7 +14217,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>312</v>
       </c>
@@ -14158,7 +14237,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>313</v>
       </c>
@@ -14178,7 +14257,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>314</v>
       </c>
@@ -14198,7 +14277,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>316</v>
       </c>
@@ -14218,7 +14297,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>318</v>
       </c>
@@ -14238,7 +14317,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>319</v>
       </c>
@@ -14258,7 +14337,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>320</v>
       </c>
@@ -14278,7 +14357,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>322</v>
       </c>
@@ -14298,7 +14377,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>323</v>
       </c>
@@ -14318,7 +14397,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>324</v>
       </c>
@@ -14338,7 +14417,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>325</v>
       </c>
@@ -14358,7 +14437,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>327</v>
       </c>
@@ -14378,7 +14457,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>329</v>
       </c>
@@ -14398,7 +14477,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>331</v>
       </c>
@@ -14418,7 +14497,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>333</v>
       </c>
@@ -14438,7 +14517,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>334</v>
       </c>
@@ -14458,7 +14537,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>335</v>
       </c>
@@ -14478,7 +14557,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>337</v>
       </c>
@@ -14498,7 +14577,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>338</v>
       </c>
@@ -14518,7 +14597,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>339</v>
       </c>
@@ -14538,7 +14617,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>341</v>
       </c>
@@ -14558,7 +14637,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>343</v>
       </c>
@@ -14578,7 +14657,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>345</v>
       </c>
@@ -14598,7 +14677,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>347</v>
       </c>
@@ -14618,7 +14697,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>348</v>
       </c>
@@ -14638,7 +14717,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>349</v>
       </c>
@@ -14658,7 +14737,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>350</v>
       </c>
@@ -14678,7 +14757,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>351</v>
       </c>
@@ -14698,7 +14777,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>353</v>
       </c>
@@ -14718,7 +14797,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>354</v>
       </c>
@@ -14738,7 +14817,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>355</v>
       </c>
@@ -14758,7 +14837,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>356</v>
       </c>
@@ -14778,7 +14857,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>357</v>
       </c>
@@ -14798,7 +14877,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>358</v>
       </c>
@@ -14818,7 +14897,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>359</v>
       </c>
@@ -14838,7 +14917,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>360</v>
       </c>
@@ -14858,7 +14937,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>361</v>
       </c>
@@ -14878,7 +14957,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>362</v>
       </c>
@@ -14898,7 +14977,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>363</v>
       </c>
@@ -14918,7 +14997,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>364</v>
       </c>
@@ -14938,7 +15017,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>365</v>
       </c>
@@ -14958,7 +15037,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>366</v>
       </c>
@@ -14978,7 +15057,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>367</v>
       </c>
@@ -14998,7 +15077,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>368</v>
       </c>
@@ -15018,7 +15097,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>370</v>
       </c>
@@ -15038,7 +15117,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>371</v>
       </c>
@@ -15058,7 +15137,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>372</v>
       </c>
@@ -15078,7 +15157,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>373</v>
       </c>
@@ -15098,7 +15177,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>374</v>
       </c>
@@ -15118,7 +15197,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>376</v>
       </c>
@@ -15138,7 +15217,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>377</v>
       </c>
@@ -15158,7 +15237,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>378</v>
       </c>
@@ -15178,7 +15257,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>379</v>
       </c>
@@ -15198,7 +15277,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>380</v>
       </c>
@@ -15218,7 +15297,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>382</v>
       </c>
@@ -15238,7 +15317,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>384</v>
       </c>
@@ -15258,7 +15337,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>385</v>
       </c>
@@ -15278,7 +15357,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>386</v>
       </c>
@@ -15298,7 +15377,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>387</v>
       </c>
@@ -15318,7 +15397,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>388</v>
       </c>
@@ -15338,7 +15417,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>389</v>
       </c>
@@ -15358,7 +15437,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>390</v>
       </c>
@@ -15378,7 +15457,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>391</v>
       </c>
@@ -15398,7 +15477,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>393</v>
       </c>
@@ -15418,7 +15497,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>394</v>
       </c>
@@ -15438,7 +15517,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>395</v>
       </c>
@@ -15458,7 +15537,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>397</v>
       </c>
@@ -15478,7 +15557,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>398</v>
       </c>
@@ -15498,7 +15577,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>399</v>
       </c>
@@ -15518,7 +15597,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>400</v>
       </c>
@@ -15538,7 +15617,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>401</v>
       </c>
@@ -15558,7 +15637,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>402</v>
       </c>
@@ -15578,7 +15657,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>403</v>
       </c>
@@ -15598,7 +15677,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>404</v>
       </c>
@@ -15618,7 +15697,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>405</v>
       </c>
@@ -15638,7 +15717,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>406</v>
       </c>
@@ -15658,7 +15737,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>407</v>
       </c>
@@ -15678,7 +15757,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>408</v>
       </c>
@@ -15698,7 +15777,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>410</v>
       </c>
@@ -15718,7 +15797,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>412</v>
       </c>
@@ -15738,7 +15817,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>413</v>
       </c>
@@ -15758,7 +15837,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>414</v>
       </c>
@@ -15778,7 +15857,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>416</v>
       </c>
@@ -15798,7 +15877,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>418</v>
       </c>
@@ -15818,7 +15897,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>420</v>
       </c>
@@ -15838,7 +15917,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>421</v>
       </c>
@@ -15858,7 +15937,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>422</v>
       </c>
@@ -15878,7 +15957,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>424</v>
       </c>
@@ -15898,7 +15977,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>426</v>
       </c>
@@ -15918,7 +15997,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>428</v>
       </c>
@@ -15938,7 +16017,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>430</v>
       </c>
@@ -15958,7 +16037,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>432</v>
       </c>
@@ -15978,7 +16057,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>434</v>
       </c>
@@ -15998,7 +16077,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>436</v>
       </c>
@@ -16018,7 +16097,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>438</v>
       </c>
@@ -16038,7 +16117,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>440</v>
       </c>
@@ -16058,7 +16137,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>441</v>
       </c>
@@ -16078,7 +16157,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>443</v>
       </c>
@@ -16098,7 +16177,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>444</v>
       </c>
@@ -16118,7 +16197,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>446</v>
       </c>
@@ -16138,7 +16217,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>448</v>
       </c>
@@ -16158,7 +16237,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>450</v>
       </c>
@@ -16178,7 +16257,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>452</v>
       </c>
@@ -16198,7 +16277,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>453</v>
       </c>
@@ -16218,7 +16297,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>455</v>
       </c>
@@ -16238,7 +16317,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>457</v>
       </c>
@@ -16258,7 +16337,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>459</v>
       </c>
@@ -16278,7 +16357,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>461</v>
       </c>
@@ -16298,7 +16377,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>463</v>
       </c>
@@ -16318,7 +16397,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>464</v>
       </c>
@@ -16338,7 +16417,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>466</v>
       </c>
@@ -16358,7 +16437,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>468</v>
       </c>
@@ -16378,7 +16457,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>469</v>
       </c>
@@ -16398,7 +16477,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>471</v>
       </c>
@@ -16418,7 +16497,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>473</v>
       </c>
@@ -16438,7 +16517,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>474</v>
       </c>
@@ -16458,7 +16537,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>475</v>
       </c>
@@ -16478,7 +16557,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>476</v>
       </c>
@@ -16498,7 +16577,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>478</v>
       </c>
@@ -16518,7 +16597,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>480</v>
       </c>
@@ -16538,7 +16617,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>481</v>
       </c>
@@ -16558,7 +16637,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>483</v>
       </c>
@@ -16578,7 +16657,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>485</v>
       </c>
@@ -16598,7 +16677,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>486</v>
       </c>
@@ -16618,7 +16697,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>488</v>
       </c>
@@ -16638,7 +16717,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>489</v>
       </c>
@@ -16658,7 +16737,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>490</v>
       </c>
@@ -16678,7 +16757,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>491</v>
       </c>
@@ -16698,7 +16777,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>493</v>
       </c>
@@ -16718,7 +16797,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>494</v>
       </c>
@@ -16738,7 +16817,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>495</v>
       </c>
@@ -16758,7 +16837,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>496</v>
       </c>
@@ -16778,7 +16857,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>497</v>
       </c>
@@ -16798,7 +16877,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>498</v>
       </c>
@@ -16818,7 +16897,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>499</v>
       </c>
@@ -16838,7 +16917,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>500</v>
       </c>
@@ -16858,7 +16937,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>502</v>
       </c>
@@ -16878,7 +16957,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>503</v>
       </c>
@@ -16898,7 +16977,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>504</v>
       </c>
@@ -16918,7 +16997,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>505</v>
       </c>
@@ -16938,7 +17017,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>506</v>
       </c>
@@ -16958,7 +17037,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>507</v>
       </c>
@@ -16978,7 +17057,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>509</v>
       </c>
@@ -16998,7 +17077,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>511</v>
       </c>
@@ -17018,7 +17097,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>512</v>
       </c>
@@ -17038,7 +17117,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>513</v>
       </c>
@@ -17058,7 +17137,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>514</v>
       </c>
@@ -17078,7 +17157,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>516</v>
       </c>
@@ -17098,7 +17177,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>517</v>
       </c>
@@ -17118,7 +17197,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>518</v>
       </c>
@@ -17138,7 +17217,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>519</v>
       </c>
@@ -17158,7 +17237,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>520</v>
       </c>
@@ -17178,7 +17257,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>522</v>
       </c>
@@ -17198,7 +17277,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>523</v>
       </c>
@@ -17218,7 +17297,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>524</v>
       </c>
@@ -17238,7 +17317,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>525</v>
       </c>
@@ -17258,7 +17337,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>526</v>
       </c>
@@ -17278,7 +17357,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>528</v>
       </c>
@@ -17298,7 +17377,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>530</v>
       </c>
@@ -17318,7 +17397,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>531</v>
       </c>
@@ -17338,7 +17417,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>532</v>
       </c>
@@ -17358,7 +17437,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>533</v>
       </c>
@@ -17378,7 +17457,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>534</v>
       </c>
@@ -17398,7 +17477,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>535</v>
       </c>
@@ -17418,7 +17497,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>536</v>
       </c>
@@ -17438,7 +17517,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>537</v>
       </c>
@@ -17458,7 +17537,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>538</v>
       </c>
@@ -17478,7 +17557,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>539</v>
       </c>
@@ -17498,7 +17577,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>541</v>
       </c>
@@ -17518,7 +17597,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>542</v>
       </c>
@@ -17538,7 +17617,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>543</v>
       </c>
@@ -17558,7 +17637,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>544</v>
       </c>
@@ -17578,7 +17657,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>545</v>
       </c>
@@ -17598,7 +17677,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>546</v>
       </c>
@@ -17618,7 +17697,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>548</v>
       </c>
@@ -17638,7 +17717,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>549</v>
       </c>
@@ -17658,7 +17737,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>550</v>
       </c>
@@ -17678,7 +17757,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>551</v>
       </c>
@@ -17698,7 +17777,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>552</v>
       </c>
@@ -17718,7 +17797,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>553</v>
       </c>
@@ -17738,7 +17817,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>554</v>
       </c>
@@ -17758,7 +17837,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>555</v>
       </c>
@@ -17778,7 +17857,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>556</v>
       </c>
@@ -17798,7 +17877,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>557</v>
       </c>
@@ -17818,7 +17897,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>558</v>
       </c>
@@ -17838,7 +17917,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>559</v>
       </c>
@@ -17858,7 +17937,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>560</v>
       </c>
@@ -17878,7 +17957,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>561</v>
       </c>
@@ -17898,7 +17977,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>563</v>
       </c>
@@ -17918,7 +17997,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>565</v>
       </c>
@@ -17938,7 +18017,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>566</v>
       </c>
@@ -17958,7 +18037,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>567</v>
       </c>
@@ -17978,7 +18057,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>569</v>
       </c>
@@ -17998,7 +18077,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>570</v>
       </c>
@@ -18018,7 +18097,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>571</v>
       </c>
@@ -18038,7 +18117,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>572</v>
       </c>
@@ -18058,7 +18137,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>574</v>
       </c>
@@ -18078,7 +18157,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>575</v>
       </c>
@@ -18098,7 +18177,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>576</v>
       </c>
@@ -18118,7 +18197,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>577</v>
       </c>
@@ -18138,7 +18217,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>578</v>
       </c>
@@ -18158,7 +18237,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>580</v>
       </c>
@@ -18178,7 +18257,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>581</v>
       </c>
@@ -18198,7 +18277,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>582</v>
       </c>
@@ -18218,7 +18297,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>583</v>
       </c>
@@ -18238,7 +18317,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>585</v>
       </c>
@@ -18258,7 +18337,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>587</v>
       </c>
@@ -18278,7 +18357,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>588</v>
       </c>
@@ -18298,7 +18377,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>590</v>
       </c>
@@ -18318,7 +18397,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>591</v>
       </c>
@@ -18338,7 +18417,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>593</v>
       </c>
@@ -18358,7 +18437,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>595</v>
       </c>
@@ -18378,7 +18457,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>596</v>
       </c>
@@ -18398,7 +18477,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>598</v>
       </c>
@@ -18418,7 +18497,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>599</v>
       </c>
@@ -18438,7 +18517,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>600</v>
       </c>
@@ -18458,7 +18537,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>601</v>
       </c>
@@ -18478,7 +18557,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>602</v>
       </c>
@@ -18498,7 +18577,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>604</v>
       </c>
@@ -18518,7 +18597,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>605</v>
       </c>
@@ -18538,7 +18617,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>607</v>
       </c>
@@ -18558,7 +18637,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>608</v>
       </c>
@@ -18578,7 +18657,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>609</v>
       </c>
@@ -18598,7 +18677,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>610</v>
       </c>
@@ -18618,7 +18697,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>612</v>
       </c>
@@ -18638,7 +18717,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>613</v>
       </c>
@@ -18658,7 +18737,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>614</v>
       </c>
@@ -18678,7 +18757,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>615</v>
       </c>
@@ -18698,7 +18777,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>617</v>
       </c>
@@ -18718,7 +18797,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>618</v>
       </c>
@@ -18738,7 +18817,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>620</v>
       </c>
@@ -18758,7 +18837,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>621</v>
       </c>
@@ -18778,7 +18857,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>623</v>
       </c>
@@ -18798,7 +18877,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>624</v>
       </c>
@@ -18818,7 +18897,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>626</v>
       </c>
@@ -18838,7 +18917,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>627</v>
       </c>
@@ -18858,7 +18937,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>628</v>
       </c>
@@ -18878,7 +18957,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>629</v>
       </c>
@@ -18898,7 +18977,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>630</v>
       </c>
@@ -18918,7 +18997,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>632</v>
       </c>
@@ -18938,7 +19017,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>633</v>
       </c>
@@ -18958,7 +19037,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>634</v>
       </c>
@@ -18978,7 +19057,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>635</v>
       </c>
@@ -18998,7 +19077,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>637</v>
       </c>
@@ -19018,7 +19097,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>639</v>
       </c>
@@ -19038,7 +19117,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>640</v>
       </c>
@@ -19058,7 +19137,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>641</v>
       </c>
@@ -19078,7 +19157,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>642</v>
       </c>
@@ -19098,7 +19177,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>643</v>
       </c>
@@ -19118,7 +19197,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>645</v>
       </c>
@@ -19138,7 +19217,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>646</v>
       </c>
@@ -19158,7 +19237,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>648</v>
       </c>
@@ -19178,7 +19257,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>649</v>
       </c>
@@ -19198,7 +19277,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>650</v>
       </c>
@@ -19218,7 +19297,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>651</v>
       </c>
@@ -19238,7 +19317,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>653</v>
       </c>
@@ -19258,7 +19337,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>655</v>
       </c>
@@ -19278,7 +19357,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="2" t="s">
         <v>656</v>
       </c>
@@ -19298,7 +19377,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>658</v>
       </c>
@@ -19318,7 +19397,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="2" t="s">
         <v>659</v>
       </c>
@@ -19338,7 +19417,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
         <v>660</v>
       </c>
@@ -19358,7 +19437,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
         <v>662</v>
       </c>
@@ -19378,7 +19457,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
         <v>663</v>
       </c>
@@ -19398,7 +19477,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
         <v>665</v>
       </c>
@@ -19418,7 +19497,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
         <v>666</v>
       </c>
@@ -19438,7 +19517,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
         <v>668</v>
       </c>
@@ -19458,7 +19537,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
         <v>669</v>
       </c>
@@ -19478,7 +19557,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
         <v>670</v>
       </c>
@@ -19498,7 +19577,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
         <v>671</v>
       </c>
@@ -19518,7 +19597,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
         <v>673</v>
       </c>
@@ -19538,7 +19617,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
         <v>674</v>
       </c>
@@ -19558,7 +19637,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
         <v>675</v>
       </c>
@@ -19578,7 +19657,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
         <v>676</v>
       </c>
@@ -19598,7 +19677,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2" t="s">
         <v>677</v>
       </c>
@@ -19618,7 +19697,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="2" t="s">
         <v>678</v>
       </c>
@@ -19638,7 +19717,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2" t="s">
         <v>680</v>
       </c>
@@ -19658,7 +19737,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="2" t="s">
         <v>681</v>
       </c>
@@ -19678,7 +19757,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2" t="s">
         <v>682</v>
       </c>
@@ -19698,7 +19777,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="2" t="s">
         <v>683</v>
       </c>
@@ -19718,7 +19797,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2" t="s">
         <v>684</v>
       </c>
@@ -19738,7 +19817,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2" t="s">
         <v>685</v>
       </c>
@@ -19758,7 +19837,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="2" t="s">
         <v>686</v>
       </c>
@@ -19778,7 +19857,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2" t="s">
         <v>687</v>
       </c>
@@ -19798,7 +19877,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="2" t="s">
         <v>688</v>
       </c>
@@ -19818,7 +19897,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2" t="s">
         <v>689</v>
       </c>
@@ -19838,7 +19917,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="2" t="s">
         <v>690</v>
       </c>
@@ -19858,7 +19937,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2" t="s">
         <v>691</v>
       </c>
@@ -19878,7 +19957,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="2" t="s">
         <v>692</v>
       </c>
@@ -19898,7 +19977,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2" t="s">
         <v>693</v>
       </c>
@@ -19918,7 +19997,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="2" t="s">
         <v>694</v>
       </c>
@@ -19938,7 +20017,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2" t="s">
         <v>695</v>
       </c>
@@ -19958,7 +20037,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="2" t="s">
         <v>696</v>
       </c>
@@ -19978,7 +20057,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2" t="s">
         <v>697</v>
       </c>
@@ -19998,7 +20077,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="2" t="s">
         <v>698</v>
       </c>
@@ -20018,7 +20097,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2" t="s">
         <v>699</v>
       </c>
@@ -20038,7 +20117,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2" t="s">
         <v>700</v>
       </c>
@@ -20058,7 +20137,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="2" t="s">
         <v>701</v>
       </c>
@@ -20078,7 +20157,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2" t="s">
         <v>702</v>
       </c>
@@ -20098,7 +20177,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="2" t="s">
         <v>704</v>
       </c>
@@ -20118,7 +20197,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2" t="s">
         <v>706</v>
       </c>
@@ -20138,7 +20217,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="2" t="s">
         <v>707</v>
       </c>
@@ -20158,7 +20237,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2" t="s">
         <v>708</v>
       </c>
@@ -20178,7 +20257,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="2" t="s">
         <v>710</v>
       </c>
@@ -20198,7 +20277,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="2" t="s">
         <v>711</v>
       </c>
@@ -20218,7 +20297,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="2" t="s">
         <v>712</v>
       </c>
@@ -20238,7 +20317,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2" t="s">
         <v>713</v>
       </c>
@@ -20258,7 +20337,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="2" t="s">
         <v>714</v>
       </c>
@@ -20278,7 +20357,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2" t="s">
         <v>715</v>
       </c>
@@ -20298,7 +20377,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="2" t="s">
         <v>716</v>
       </c>
@@ -20318,7 +20397,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2" t="s">
         <v>717</v>
       </c>
@@ -20338,7 +20417,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2" t="s">
         <v>718</v>
       </c>
@@ -20358,7 +20437,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="2" t="s">
         <v>719</v>
       </c>
@@ -20378,7 +20457,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2" t="s">
         <v>721</v>
       </c>
@@ -20398,7 +20477,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="2" t="s">
         <v>722</v>
       </c>
@@ -20418,7 +20497,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2" t="s">
         <v>723</v>
       </c>
@@ -20438,7 +20517,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="2" t="s">
         <v>724</v>
       </c>
@@ -20458,7 +20537,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2" t="s">
         <v>725</v>
       </c>
@@ -20478,7 +20557,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="2" t="s">
         <v>726</v>
       </c>
@@ -20498,7 +20577,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2" t="s">
         <v>727</v>
       </c>
@@ -20518,7 +20597,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="2" t="s">
         <v>728</v>
       </c>
@@ -20538,7 +20617,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2" t="s">
         <v>729</v>
       </c>
@@ -20558,7 +20637,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="2" t="s">
         <v>730</v>
       </c>
@@ -20578,7 +20657,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="2" t="s">
         <v>731</v>
       </c>
@@ -20598,7 +20677,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="2" t="s">
         <v>732</v>
       </c>
@@ -20618,7 +20697,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2" t="s">
         <v>734</v>
       </c>
@@ -20638,7 +20717,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2" t="s">
         <v>736</v>
       </c>
@@ -20658,7 +20737,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="2" t="s">
         <v>738</v>
       </c>
@@ -20678,7 +20757,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2" t="s">
         <v>739</v>
       </c>
@@ -20698,7 +20777,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="2" t="s">
         <v>741</v>
       </c>
@@ -20718,7 +20797,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2" t="s">
         <v>742</v>
       </c>
@@ -20738,7 +20817,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="2" t="s">
         <v>743</v>
       </c>
@@ -20758,7 +20837,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2" t="s">
         <v>744</v>
       </c>
@@ -20778,7 +20857,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="2" t="s">
         <v>746</v>
       </c>
@@ -20798,7 +20877,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2" t="s">
         <v>748</v>
       </c>
@@ -20818,7 +20897,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="2" t="s">
         <v>750</v>
       </c>
@@ -20838,7 +20917,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2" t="s">
         <v>751</v>
       </c>
@@ -20858,7 +20937,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="2" t="s">
         <v>752</v>
       </c>
@@ -20878,7 +20957,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2" t="s">
         <v>754</v>
       </c>
@@ -20898,7 +20977,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="2" t="s">
         <v>756</v>
       </c>
@@ -20918,7 +20997,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2" t="s">
         <v>757</v>
       </c>
@@ -20938,7 +21017,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2" t="s">
         <v>758</v>
       </c>
@@ -20958,7 +21037,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="2" t="s">
         <v>760</v>
       </c>
@@ -20978,7 +21057,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2" t="s">
         <v>761</v>
       </c>
@@ -20998,7 +21077,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="2" t="s">
         <v>762</v>
       </c>
@@ -21018,7 +21097,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2" t="s">
         <v>763</v>
       </c>
@@ -21038,7 +21117,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="2" t="s">
         <v>765</v>
       </c>
@@ -21058,7 +21137,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2" t="s">
         <v>767</v>
       </c>
@@ -21078,7 +21157,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="2" t="s">
         <v>768</v>
       </c>
@@ -21098,7 +21177,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2" t="s">
         <v>770</v>
       </c>
@@ -21118,7 +21197,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="2" t="s">
         <v>772</v>
       </c>
@@ -21138,7 +21217,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2" t="s">
         <v>773</v>
       </c>
@@ -21158,7 +21237,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="2" t="s">
         <v>774</v>
       </c>
@@ -21178,7 +21257,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2" t="s">
         <v>776</v>
       </c>
@@ -21198,7 +21277,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="2" t="s">
         <v>778</v>
       </c>
@@ -21218,7 +21297,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2" t="s">
         <v>779</v>
       </c>
@@ -21238,7 +21317,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2" t="s">
         <v>780</v>
       </c>
@@ -21258,7 +21337,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="2" t="s">
         <v>782</v>
       </c>
@@ -21278,7 +21357,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="2" t="s">
         <v>784</v>
       </c>
@@ -21298,7 +21377,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="2" t="s">
         <v>785</v>
       </c>
@@ -21318,7 +21397,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="2" t="s">
         <v>787</v>
       </c>
@@ -21338,7 +21417,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="2" t="s">
         <v>789</v>
       </c>
@@ -21358,7 +21437,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2" t="s">
         <v>790</v>
       </c>
@@ -21378,7 +21457,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="2" t="s">
         <v>791</v>
       </c>
@@ -21398,7 +21477,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2" t="s">
         <v>793</v>
       </c>
@@ -21418,7 +21497,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="2" t="s">
         <v>794</v>
       </c>
@@ -21438,7 +21517,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="717" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="4" t="s">
         <v>1842</v>
       </c>
@@ -21458,7 +21537,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="4" t="s">
         <v>1843</v>
       </c>
@@ -21478,7 +21557,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="4" t="s">
         <v>1844</v>
       </c>
@@ -21498,7 +21577,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="4" t="s">
         <v>1845</v>
       </c>
@@ -21518,7 +21597,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="4" t="s">
         <v>1846</v>
       </c>
@@ -21538,7 +21617,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="4" t="s">
         <v>1847</v>
       </c>
@@ -21558,7 +21637,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="4" t="s">
         <v>1848</v>
       </c>
@@ -21578,7 +21657,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="4" t="s">
         <v>1849</v>
       </c>
@@ -21598,7 +21677,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="4" t="s">
         <v>1850</v>
       </c>
@@ -21618,7 +21697,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="4" t="s">
         <v>1851</v>
       </c>
@@ -21638,7 +21717,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="4" t="s">
         <v>1852</v>
       </c>
@@ -21658,7 +21737,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="4" t="s">
         <v>1853</v>
       </c>
@@ -21678,7 +21757,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="4" t="s">
         <v>1854</v>
       </c>
@@ -21698,7 +21777,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="4" t="s">
         <v>1855</v>
       </c>
@@ -21718,7 +21797,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="4" t="s">
         <v>1856</v>
       </c>
@@ -21738,7 +21817,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="4" t="s">
         <v>1857</v>
       </c>
@@ -21758,7 +21837,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="4" t="s">
         <v>1858</v>
       </c>
@@ -21778,7 +21857,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="4" t="s">
         <v>1859</v>
       </c>
@@ -21798,7 +21877,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="4" t="s">
         <v>1860</v>
       </c>
@@ -21818,7 +21897,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="4" t="s">
         <v>1861</v>
       </c>
@@ -21838,7 +21917,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="4" t="s">
         <v>1862</v>
       </c>
@@ -21858,7 +21937,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="4" t="s">
         <v>1863</v>
       </c>
@@ -21878,7 +21957,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="4" t="s">
         <v>1864</v>
       </c>
@@ -21898,7 +21977,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="4" t="s">
         <v>1865</v>
       </c>
@@ -21918,7 +21997,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="4" t="s">
         <v>1866</v>
       </c>
@@ -21938,7 +22017,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="4" t="s">
         <v>1867</v>
       </c>
@@ -21958,7 +22037,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="4" t="s">
         <v>1868</v>
       </c>
@@ -21978,7 +22057,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="4" t="s">
         <v>1869</v>
       </c>
@@ -21998,7 +22077,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="4" t="s">
         <v>1870</v>
       </c>
@@ -22018,7 +22097,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="4" t="s">
         <v>1871</v>
       </c>
@@ -22038,7 +22117,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="4" t="s">
         <v>1872</v>
       </c>
@@ -22058,7 +22137,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="4" t="s">
         <v>1873</v>
       </c>
@@ -22078,7 +22157,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="4" t="s">
         <v>1874</v>
       </c>
@@ -22098,7 +22177,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="4" t="s">
         <v>1875</v>
       </c>
@@ -22118,7 +22197,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="4" t="s">
         <v>1876</v>
       </c>
@@ -22138,7 +22217,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="4" t="s">
         <v>1877</v>
       </c>
@@ -22158,7 +22237,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="4" t="s">
         <v>1878</v>
       </c>
@@ -22178,7 +22257,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="4" t="s">
         <v>1879</v>
       </c>
@@ -22198,7 +22277,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="4" t="s">
         <v>1880</v>
       </c>
@@ -22218,7 +22297,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="4" t="s">
         <v>1881</v>
       </c>
@@ -22238,7 +22317,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="4" t="s">
         <v>1882</v>
       </c>
@@ -22258,7 +22337,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="4" t="s">
         <v>1883</v>
       </c>
@@ -22278,7 +22357,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="4" t="s">
         <v>1884</v>
       </c>
@@ -22298,7 +22377,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="4" t="s">
         <v>1885</v>
       </c>
@@ -22318,7 +22397,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="4" t="s">
         <v>1886</v>
       </c>
@@ -22338,7 +22417,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="4" t="s">
         <v>1887</v>
       </c>
@@ -22358,7 +22437,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="4" t="s">
         <v>1888</v>
       </c>
@@ -22378,7 +22457,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="4" t="s">
         <v>1889</v>
       </c>
@@ -22398,7 +22477,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="4" t="s">
         <v>1890</v>
       </c>
@@ -22418,7 +22497,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="4" t="s">
         <v>1891</v>
       </c>
@@ -22438,7 +22517,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="4" t="s">
         <v>1892</v>
       </c>
@@ -22458,7 +22537,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="4" t="s">
         <v>1893</v>
       </c>
@@ -22478,7 +22557,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="4" t="s">
         <v>1894</v>
       </c>
@@ -22498,7 +22577,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="4" t="s">
         <v>1895</v>
       </c>
@@ -22518,7 +22597,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="4" t="s">
         <v>1896</v>
       </c>
@@ -22538,7 +22617,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="4" t="s">
         <v>1897</v>
       </c>
@@ -22558,7 +22637,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="4" t="s">
         <v>1898</v>
       </c>
@@ -22578,7 +22657,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="4" t="s">
         <v>1899</v>
       </c>
@@ -22598,7 +22677,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="4" t="s">
         <v>1900</v>
       </c>
@@ -22618,7 +22697,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="4" t="s">
         <v>1901</v>
       </c>
@@ -22638,7 +22717,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="4" t="s">
         <v>1902</v>
       </c>
@@ -22658,7 +22737,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="4" t="s">
         <v>1903</v>
       </c>
@@ -22678,7 +22757,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="4" t="s">
         <v>1904</v>
       </c>
@@ -22698,7 +22777,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="4" t="s">
         <v>1905</v>
       </c>
@@ -22718,7 +22797,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="4" t="s">
         <v>1906</v>
       </c>
@@ -22738,7 +22817,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="4" t="s">
         <v>1907</v>
       </c>
@@ -22758,7 +22837,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="4" t="s">
         <v>1908</v>
       </c>
@@ -22778,7 +22857,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="4" t="s">
         <v>1909</v>
       </c>
@@ -22798,7 +22877,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="4" t="s">
         <v>1910</v>
       </c>
@@ -22818,7 +22897,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="4" t="s">
         <v>1911</v>
       </c>
@@ -22838,7 +22917,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="4" t="s">
         <v>1912</v>
       </c>
@@ -22858,7 +22937,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="4" t="s">
         <v>1913</v>
       </c>
@@ -22878,7 +22957,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="4" t="s">
         <v>1914</v>
       </c>
@@ -22898,7 +22977,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="4" t="s">
         <v>1915</v>
       </c>
@@ -22918,7 +22997,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="4" t="s">
         <v>1916</v>
       </c>
@@ -22938,7 +23017,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="4" t="s">
         <v>1917</v>
       </c>
@@ -22958,7 +23037,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="4" t="s">
         <v>1918</v>
       </c>
@@ -22978,7 +23057,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="4" t="s">
         <v>1919</v>
       </c>
@@ -22998,7 +23077,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="4" t="s">
         <v>1920</v>
       </c>
@@ -23018,7 +23097,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="4" t="s">
         <v>1921</v>
       </c>
@@ -23038,7 +23117,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="4" t="s">
         <v>1922</v>
       </c>
@@ -23058,7 +23137,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="4" t="s">
         <v>1923</v>
       </c>
@@ -23078,7 +23157,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="4" t="s">
         <v>1924</v>
       </c>
@@ -23098,7 +23177,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="4" t="s">
         <v>1925</v>
       </c>
@@ -23118,7 +23197,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="4" t="s">
         <v>1926</v>
       </c>
@@ -23138,7 +23217,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="4" t="s">
         <v>1927</v>
       </c>
@@ -23158,7 +23237,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="4" t="s">
         <v>1928</v>
       </c>
@@ -23178,7 +23257,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="4" t="s">
         <v>1929</v>
       </c>
@@ -23198,7 +23277,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="4" t="s">
         <v>1930</v>
       </c>
@@ -23218,7 +23297,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="4" t="s">
         <v>1931</v>
       </c>
@@ -23238,7 +23317,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="4" t="s">
         <v>1932</v>
       </c>
@@ -23258,7 +23337,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="4" t="s">
         <v>1933</v>
       </c>
@@ -23278,7 +23357,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="4" t="s">
         <v>1934</v>
       </c>
@@ -23298,7 +23377,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="4" t="s">
         <v>1935</v>
       </c>
@@ -23318,7 +23397,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="4" t="s">
         <v>1936</v>
       </c>
@@ -23338,7 +23417,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="4" t="s">
         <v>1937</v>
       </c>
@@ -23358,7 +23437,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="4" t="s">
         <v>1938</v>
       </c>
@@ -23378,7 +23457,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="4" t="s">
         <v>1939</v>
       </c>
@@ -23398,7 +23477,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="4" t="s">
         <v>1940</v>
       </c>
@@ -23418,7 +23497,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="4" t="s">
         <v>1941</v>
       </c>
@@ -23438,7 +23517,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="4" t="s">
         <v>1942</v>
       </c>
@@ -23458,7 +23537,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="4" t="s">
         <v>1943</v>
       </c>
@@ -23478,7 +23557,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="4" t="s">
         <v>1944</v>
       </c>
@@ -23498,7 +23577,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="4" t="s">
         <v>1945</v>
       </c>
@@ -23518,7 +23597,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="4" t="s">
         <v>1946</v>
       </c>
@@ -23538,7 +23617,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="4" t="s">
         <v>1947</v>
       </c>
@@ -23558,7 +23637,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="4" t="s">
         <v>1948</v>
       </c>
@@ -23578,7 +23657,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="4" t="s">
         <v>1949</v>
       </c>
@@ -23598,7 +23677,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="4" t="s">
         <v>1950</v>
       </c>
@@ -23618,7 +23697,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="4" t="s">
         <v>1951</v>
       </c>
@@ -23638,7 +23717,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="4" t="s">
         <v>1952</v>
       </c>
@@ -23658,7 +23737,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="4" t="s">
         <v>1953</v>
       </c>
@@ -23678,7 +23757,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="4" t="s">
         <v>1954</v>
       </c>
@@ -23698,7 +23777,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="4" t="s">
         <v>1955</v>
       </c>
@@ -23718,7 +23797,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="4" t="s">
         <v>1956</v>
       </c>
@@ -23738,7 +23817,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="4" t="s">
         <v>1957</v>
       </c>
@@ -23758,7 +23837,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="4" t="s">
         <v>1958</v>
       </c>
@@ -23778,7 +23857,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="4" t="s">
         <v>1959</v>
       </c>
@@ -23798,7 +23877,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="4" t="s">
         <v>1960</v>
       </c>
@@ -23818,7 +23897,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="4" t="s">
         <v>1961</v>
       </c>
@@ -23838,7 +23917,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="4" t="s">
         <v>1962</v>
       </c>
@@ -23858,7 +23937,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="4" t="s">
         <v>1963</v>
       </c>
@@ -23878,7 +23957,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="4" t="s">
         <v>1964</v>
       </c>
@@ -23898,7 +23977,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="4" t="s">
         <v>1965</v>
       </c>
@@ -23918,7 +23997,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="4" t="s">
         <v>1966</v>
       </c>
@@ -23938,7 +24017,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="4" t="s">
         <v>1967</v>
       </c>
@@ -23958,7 +24037,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="4" t="s">
         <v>1968</v>
       </c>
@@ -23978,7 +24057,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="4" t="s">
         <v>1969</v>
       </c>
@@ -23998,7 +24077,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="4" t="s">
         <v>1970</v>
       </c>
@@ -24018,7 +24097,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="4" t="s">
         <v>1971</v>
       </c>
@@ -24038,7 +24117,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="4" t="s">
         <v>1972</v>
       </c>
@@ -24058,7 +24137,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="4" t="s">
         <v>1973</v>
       </c>
@@ -24078,7 +24157,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="4" t="s">
         <v>1974</v>
       </c>
@@ -24098,7 +24177,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="4" t="s">
         <v>1975</v>
       </c>
@@ -24118,7 +24197,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="4" t="s">
         <v>1976</v>
       </c>
@@ -24138,7 +24217,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="4" t="s">
         <v>1977</v>
       </c>
@@ -24158,7 +24237,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="4" t="s">
         <v>1978</v>
       </c>
@@ -24178,7 +24257,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="4" t="s">
         <v>1979</v>
       </c>
@@ -24198,7 +24277,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="4" t="s">
         <v>1980</v>
       </c>
@@ -24218,7 +24297,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="4" t="s">
         <v>1981</v>
       </c>
@@ -24238,7 +24317,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="4" t="s">
         <v>1982</v>
       </c>
@@ -24258,7 +24337,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="4" t="s">
         <v>1983</v>
       </c>
@@ -24278,7 +24357,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="4" t="s">
         <v>1984</v>
       </c>
@@ -24298,7 +24377,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="4" t="s">
         <v>1985</v>
       </c>
@@ -24318,7 +24397,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="4" t="s">
         <v>1986</v>
       </c>
@@ -24338,7 +24417,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="4" t="s">
         <v>1987</v>
       </c>
@@ -24358,7 +24437,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="4" t="s">
         <v>1988</v>
       </c>
@@ -24378,7 +24457,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="4" t="s">
         <v>1989</v>
       </c>
@@ -24398,7 +24477,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="4" t="s">
         <v>1990</v>
       </c>
@@ -24418,7 +24497,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="866" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="4" t="s">
         <v>1991</v>
       </c>
@@ -24438,7 +24517,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="4" t="s">
         <v>1992</v>
       </c>
@@ -24458,7 +24537,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="4" t="s">
         <v>1993</v>
       </c>
@@ -24478,7 +24557,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="4" t="s">
         <v>1994</v>
       </c>
@@ -24498,7 +24577,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="4" t="s">
         <v>1995</v>
       </c>
@@ -24518,7 +24597,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="4" t="s">
         <v>1996</v>
       </c>
@@ -24538,7 +24617,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="4" t="s">
         <v>1997</v>
       </c>
@@ -24558,7 +24637,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="4" t="s">
         <v>1998</v>
       </c>
@@ -24578,7 +24657,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="4" t="s">
         <v>1999</v>
       </c>
@@ -24598,7 +24677,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="4" t="s">
         <v>2000</v>
       </c>
@@ -24618,7 +24697,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="4" t="s">
         <v>2001</v>
       </c>
@@ -24638,7 +24717,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="4" t="s">
         <v>2002</v>
       </c>
@@ -24658,7 +24737,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="4" t="s">
         <v>2003</v>
       </c>
@@ -24678,7 +24757,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="4" t="s">
         <v>2004</v>
       </c>
@@ -24698,7 +24777,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="4" t="s">
         <v>2005</v>
       </c>
@@ -24718,7 +24797,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="4" t="s">
         <v>2006</v>
       </c>
@@ -24738,7 +24817,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="4" t="s">
         <v>2007</v>
       </c>
@@ -24758,7 +24837,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="4" t="s">
         <v>2008</v>
       </c>
@@ -24778,7 +24857,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="4" t="s">
         <v>2009</v>
       </c>
@@ -24798,7 +24877,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="4" t="s">
         <v>2010</v>
       </c>
@@ -24818,7 +24897,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="4" t="s">
         <v>2011</v>
       </c>
@@ -24838,7 +24917,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="4" t="s">
         <v>2012</v>
       </c>
@@ -24858,7 +24937,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="4" t="s">
         <v>2013</v>
       </c>
@@ -24878,7 +24957,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="4" t="s">
         <v>2014</v>
       </c>
@@ -24898,7 +24977,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="4" t="s">
         <v>2015</v>
       </c>
@@ -24918,7 +24997,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="891" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="4" t="s">
         <v>2016</v>
       </c>
@@ -24938,7 +25017,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="892" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="4" t="s">
         <v>2017</v>
       </c>
@@ -24958,7 +25037,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="4" t="s">
         <v>2018</v>
       </c>
@@ -24978,7 +25057,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="4" t="s">
         <v>2019</v>
       </c>
@@ -24998,7 +25077,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="4" t="s">
         <v>2020</v>
       </c>
@@ -25018,7 +25097,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="4" t="s">
         <v>2021</v>
       </c>
@@ -25038,7 +25117,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="4" t="s">
         <v>2022</v>
       </c>
@@ -25058,7 +25137,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="4" t="s">
         <v>2023</v>
       </c>
@@ -25078,7 +25157,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="4" t="s">
         <v>2024</v>
       </c>
@@ -25098,7 +25177,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="4" t="s">
         <v>2025</v>
       </c>
@@ -25118,7 +25197,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="4" t="s">
         <v>2026</v>
       </c>
@@ -25138,7 +25217,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="4" t="s">
         <v>2027</v>
       </c>
@@ -25158,7 +25237,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="4" t="s">
         <v>2028</v>
       </c>
@@ -25178,7 +25257,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="4" t="s">
         <v>2029</v>
       </c>
@@ -25198,7 +25277,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="4" t="s">
         <v>2030</v>
       </c>
@@ -25218,7 +25297,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="4" t="s">
         <v>2031</v>
       </c>
@@ -25238,7 +25317,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="4" t="s">
         <v>2032</v>
       </c>
@@ -25258,7 +25337,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="4" t="s">
         <v>2033</v>
       </c>
@@ -25278,7 +25357,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="4" t="s">
         <v>2034</v>
       </c>
@@ -25298,7 +25377,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="4" t="s">
         <v>2035</v>
       </c>
@@ -25318,7 +25397,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="4" t="s">
         <v>2036</v>
       </c>
@@ -25338,7 +25417,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="4" t="s">
         <v>2037</v>
       </c>
@@ -25358,7 +25437,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="4" t="s">
         <v>2038</v>
       </c>
@@ -25378,7 +25457,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="4" t="s">
         <v>2039</v>
       </c>
@@ -25398,7 +25477,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="4" t="s">
         <v>2040</v>
       </c>
@@ -25418,7 +25497,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="4" t="s">
         <v>2041</v>
       </c>
@@ -25438,7 +25517,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="4" t="s">
         <v>2042</v>
       </c>
@@ -25458,7 +25537,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="4" t="s">
         <v>2043</v>
       </c>
@@ -25478,7 +25557,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="4" t="s">
         <v>2044</v>
       </c>
@@ -25498,7 +25577,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="4" t="s">
         <v>2045</v>
       </c>
@@ -25518,7 +25597,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="4" t="s">
         <v>2046</v>
       </c>
@@ -25538,7 +25617,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="922" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="4" t="s">
         <v>2047</v>
       </c>
@@ -25558,7 +25637,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="923" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="4" t="s">
         <v>2048</v>
       </c>
@@ -25578,7 +25657,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="4" t="s">
         <v>2049</v>
       </c>
@@ -25598,7 +25677,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="4" t="s">
         <v>2050</v>
       </c>
@@ -25618,7 +25697,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="4" t="s">
         <v>2051</v>
       </c>
@@ -25638,7 +25717,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="4" t="s">
         <v>2052</v>
       </c>
@@ -25658,7 +25737,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="4" t="s">
         <v>2053</v>
       </c>
@@ -25678,7 +25757,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="4" t="s">
         <v>2054</v>
       </c>
@@ -25698,7 +25777,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="930" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="4" t="s">
         <v>2055</v>
       </c>
@@ -25718,7 +25797,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="4" t="s">
         <v>2056</v>
       </c>
@@ -25738,7 +25817,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="4" t="s">
         <v>2057</v>
       </c>
@@ -25758,7 +25837,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="933" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="4" t="s">
         <v>2058</v>
       </c>
@@ -25778,7 +25857,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="934" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="4" t="s">
         <v>2059</v>
       </c>
@@ -25798,7 +25877,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="935" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="4" t="s">
         <v>2060</v>
       </c>
@@ -25818,7 +25897,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="936" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="4" t="s">
         <v>2061</v>
       </c>
@@ -25838,7 +25917,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="937" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="4" t="s">
         <v>2062</v>
       </c>
@@ -25858,7 +25937,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="938" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="4" t="s">
         <v>2063</v>
       </c>
@@ -25878,7 +25957,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="939" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="4" t="s">
         <v>2064</v>
       </c>
@@ -25898,7 +25977,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="940" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="4" t="s">
         <v>2065</v>
       </c>
@@ -25918,7 +25997,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="941" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="4" t="s">
         <v>2066</v>
       </c>
@@ -25938,7 +26017,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="942" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="4" t="s">
         <v>2067</v>
       </c>
@@ -25958,7 +26037,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="943" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="4" t="s">
         <v>2068</v>
       </c>
@@ -25978,7 +26057,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="4" t="s">
         <v>2069</v>
       </c>
@@ -25998,7 +26077,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="945" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="4" t="s">
         <v>2070</v>
       </c>
@@ -26018,7 +26097,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="946" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="4" t="s">
         <v>2071</v>
       </c>
@@ -26038,7 +26117,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="4" t="s">
         <v>2072</v>
       </c>
@@ -26058,7 +26137,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="948" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="4" t="s">
         <v>2073</v>
       </c>
@@ -26078,7 +26157,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="4" t="s">
         <v>2074</v>
       </c>
@@ -26098,7 +26177,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="4" t="s">
         <v>2075</v>
       </c>
@@ -26118,7 +26197,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="951" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="4" t="s">
         <v>2076</v>
       </c>
@@ -26138,7 +26217,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="952" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="4" t="s">
         <v>2077</v>
       </c>
@@ -26158,7 +26237,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="4" t="s">
         <v>2078</v>
       </c>
@@ -26178,7 +26257,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="4" t="s">
         <v>2079</v>
       </c>
@@ -26198,7 +26277,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="955" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="4" t="s">
         <v>2080</v>
       </c>
@@ -26218,7 +26297,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="4" t="s">
         <v>2081</v>
       </c>
@@ -26238,7 +26317,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="957" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="4" t="s">
         <v>2082</v>
       </c>
@@ -26258,7 +26337,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="958" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="4" t="s">
         <v>2083</v>
       </c>
@@ -26278,7 +26357,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="959" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="4" t="s">
         <v>2084</v>
       </c>
@@ -26298,7 +26377,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="960" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="4" t="s">
         <v>2085</v>
       </c>
@@ -26318,7 +26397,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="4" t="s">
         <v>2086</v>
       </c>
@@ -26338,7 +26417,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="4" t="s">
         <v>2087</v>
       </c>
@@ -26358,7 +26437,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="963" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="4" t="s">
         <v>2088</v>
       </c>
@@ -26378,7 +26457,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="964" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="4" t="s">
         <v>2089</v>
       </c>
@@ -26398,7 +26477,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="4" t="s">
         <v>2090</v>
       </c>
@@ -26418,7 +26497,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="4" t="s">
         <v>2091</v>
       </c>
@@ -26438,7 +26517,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="967" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="4" t="s">
         <v>2092</v>
       </c>
@@ -26458,7 +26537,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="968" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="4" t="s">
         <v>2093</v>
       </c>
@@ -26478,7 +26557,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="969" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="4" t="s">
         <v>2094</v>
       </c>
@@ -26498,7 +26577,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="970" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="4" t="s">
         <v>2095</v>
       </c>
@@ -26518,7 +26597,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="971" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="4" t="s">
         <v>2096</v>
       </c>
@@ -26538,7 +26617,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="972" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="4" t="s">
         <v>2097</v>
       </c>
@@ -26558,7 +26637,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="973" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="4" t="s">
         <v>2098</v>
       </c>
@@ -26578,7 +26657,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="974" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="4" t="s">
         <v>2099</v>
       </c>
@@ -26598,7 +26677,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="975" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="4" t="s">
         <v>2100</v>
       </c>
@@ -26618,7 +26697,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="4" t="s">
         <v>2101</v>
       </c>
@@ -26638,7 +26717,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="4" t="s">
         <v>2102</v>
       </c>
@@ -26658,7 +26737,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="978" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="4" t="s">
         <v>2103</v>
       </c>
@@ -26678,7 +26757,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="979" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="4" t="s">
         <v>2104</v>
       </c>
@@ -26698,7 +26777,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="980" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="4" t="s">
         <v>2105</v>
       </c>
@@ -26718,7 +26797,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="981" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="4" t="s">
         <v>2106</v>
       </c>
@@ -26738,7 +26817,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="982" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="4" t="s">
         <v>2107</v>
       </c>
@@ -26758,7 +26837,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="983" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="4" t="s">
         <v>2108</v>
       </c>
@@ -26778,7 +26857,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="4" t="s">
         <v>2109</v>
       </c>
@@ -26798,7 +26877,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="4" t="s">
         <v>2110</v>
       </c>
@@ -26818,7 +26897,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="986" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="4" t="s">
         <v>2111</v>
       </c>
@@ -26838,7 +26917,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="987" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="4" t="s">
         <v>2112</v>
       </c>
@@ -26858,7 +26937,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="988" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="4" t="s">
         <v>2113</v>
       </c>
@@ -26878,7 +26957,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="989" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="4" t="s">
         <v>2114</v>
       </c>
@@ -26898,7 +26977,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="990" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="4" t="s">
         <v>2115</v>
       </c>
@@ -26918,7 +26997,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="991" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="4" t="s">
         <v>2116</v>
       </c>
@@ -26938,7 +27017,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="992" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="4" t="s">
         <v>2117</v>
       </c>
@@ -26958,7 +27037,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="993" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="4" t="s">
         <v>2118</v>
       </c>
@@ -26978,7 +27057,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="994" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="4" t="s">
         <v>2119</v>
       </c>
@@ -26998,7 +27077,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="995" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="4" t="s">
         <v>2120</v>
       </c>
@@ -27018,7 +27097,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="4" t="s">
         <v>2121</v>
       </c>
@@ -27038,7 +27117,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="997" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="4" t="s">
         <v>2122</v>
       </c>
@@ -27058,7 +27137,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="998" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="4" t="s">
         <v>2123</v>
       </c>
@@ -27078,7 +27157,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="999" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="4" t="s">
         <v>2124</v>
       </c>
@@ -27098,7 +27177,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="4" t="s">
         <v>2125</v>
       </c>
@@ -27118,7 +27197,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="4" t="s">
         <v>2126</v>
       </c>
@@ -27138,7 +27217,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1002" s="4" t="s">
         <v>2127</v>
       </c>
@@ -27158,7 +27237,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1003" s="4" t="s">
         <v>2128</v>
       </c>
@@ -27178,7 +27257,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1004" s="4" t="s">
         <v>2129</v>
       </c>
@@ -27198,7 +27277,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1005" s="4" t="s">
         <v>2130</v>
       </c>
@@ -27218,7 +27297,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1006" s="4" t="s">
         <v>2131</v>
       </c>
@@ -27238,7 +27317,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1007" s="4" t="s">
         <v>2132</v>
       </c>
@@ -27258,7 +27337,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1008" s="4" t="s">
         <v>2133</v>
       </c>
@@ -27278,7 +27357,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1009" s="4" t="s">
         <v>2134</v>
       </c>
@@ -27296,6 +27375,186 @@
       </c>
       <c r="F1009" s="4" t="s">
         <v>2168</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1010" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1011" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1012" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1013" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C1014" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1014" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="4" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1015" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1015" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1016" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1016" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1016" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C1017" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1017" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1017" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1018" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1018" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1018" s="2" t="s">
+        <v>2221</v>
       </c>
     </row>
   </sheetData>

--- a/src/querryRunner/stores/exportstoreprev.xlsx
+++ b/src/querryRunner/stores/exportstoreprev.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6029" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6329" uniqueCount="2361">
   <si>
     <t>Store_ID</t>
   </si>
@@ -6702,6 +6702,420 @@
   </si>
   <si>
     <t>executive_00021 ,executive_00003</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Prozone Mall</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Solitario</t>
+  </si>
+  <si>
+    <t>Croma -Baramati-Bhigwan Road</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Waluj</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Nashik Road</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-VIP Chowk</t>
+  </si>
+  <si>
+    <t>Croma -Bilaspur-Srikant Verma Marg</t>
+  </si>
+  <si>
+    <t>Croma -Solapur-Murarji Peth</t>
+  </si>
+  <si>
+    <t>Croma -Latur-Ambejogai Road</t>
+  </si>
+  <si>
+    <t>Croma -Amravati-Badnera Road</t>
+  </si>
+  <si>
+    <t>Croma -Bhilai-Supela</t>
+  </si>
+  <si>
+    <t>Croma -Akola-Kirti Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Ahmednagar-Kohinoor Mall</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Pathardi Phata</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-GE Road</t>
+  </si>
+  <si>
+    <t>Croma -Chandrapur-Nagpur Road</t>
+  </si>
+  <si>
+    <t>Croma -Nagpur-Wardha Road</t>
+  </si>
+  <si>
+    <t>Croma -Jalna-Old Mondha</t>
+  </si>
+  <si>
+    <t>Croma -Rajnandgaon-Basantpur Road</t>
+  </si>
+  <si>
+    <t>Croma -Ichalkranjii-Fortune Plaza II</t>
+  </si>
+  <si>
+    <t>Croma -Solapur-Hotgi Road</t>
+  </si>
+  <si>
+    <t>Croma -Miraj-Vantmure Corner</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Jalna Road</t>
+  </si>
+  <si>
+    <t>Croma -Beed-Shivaji Maharaj Chowk</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Dindori Road</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Gangapur Road</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-Bhatagaon</t>
+  </si>
+  <si>
+    <t>Croma -Durg-Station Road</t>
+  </si>
+  <si>
+    <t>Croma -Korba-Transport Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Nagpur-Manish Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Nanded-ITI Road</t>
+  </si>
+  <si>
+    <t>Croma -Nagpur-Ganeshpeth</t>
+  </si>
+  <si>
+    <t>Croma -Pune-Kothrud 2</t>
+  </si>
+  <si>
+    <t>Croma -Bilaspur-Sarkanada</t>
+  </si>
+  <si>
+    <t>Croma -Ratnagiri-Arihant Mall</t>
+  </si>
+  <si>
+    <t>Croma -Sangamner-College Road</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Govind Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Machilipatnam-Ramanaidupet</t>
+  </si>
+  <si>
+    <t>Croma -Erode-Perundurai Road</t>
+  </si>
+  <si>
+    <t>Croma -Chennai-Tambaram West</t>
+  </si>
+  <si>
+    <t>Croma -Sangli-Ram Mandir Chowk</t>
+  </si>
+  <si>
+    <t>Croma -Shahad-Kalyan Ahmednagar Highway</t>
+  </si>
+  <si>
+    <t>Croma -Ranchi-Kanke Road</t>
+  </si>
+  <si>
+    <t>Croma -Kolhapur -Station Road</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Beed Bypass Road</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-Pandri</t>
+  </si>
+  <si>
+    <t>Croma -Thane-Teen Hath Naka</t>
+  </si>
+  <si>
+    <t>Croma -Delhi-Airport Terminal 1 D</t>
+  </si>
+  <si>
+    <t>Croma -Guwahati ? Lokhara</t>
+  </si>
+  <si>
+    <t>Croma -Ghaziabad-Ambedkar Road</t>
+  </si>
+  <si>
+    <t>Chhatrapati Sambhaji Nagar</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Baramati</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Bilaspur</t>
+  </si>
+  <si>
+    <t>Solapur</t>
+  </si>
+  <si>
+    <t>Latur</t>
+  </si>
+  <si>
+    <t>AMRAVATI</t>
+  </si>
+  <si>
+    <t>Bhilai</t>
+  </si>
+  <si>
+    <t>Akola</t>
+  </si>
+  <si>
+    <t>Ahmednagar</t>
+  </si>
+  <si>
+    <t>Chandrapur</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Jalna</t>
+  </si>
+  <si>
+    <t>Rajnandgaon</t>
+  </si>
+  <si>
+    <t>Ichalkranjii</t>
+  </si>
+  <si>
+    <t>Miraj</t>
+  </si>
+  <si>
+    <t>Beed</t>
+  </si>
+  <si>
+    <t>Durg</t>
+  </si>
+  <si>
+    <t>Korba</t>
+  </si>
+  <si>
+    <t>Nanded</t>
+  </si>
+  <si>
+    <t>Ratnagiri</t>
+  </si>
+  <si>
+    <t>Sangamner</t>
+  </si>
+  <si>
+    <t>Machilipatnam</t>
+  </si>
+  <si>
+    <t>Erode</t>
+  </si>
+  <si>
+    <t>Sangli</t>
+  </si>
+  <si>
+    <t>Shahad</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>Vikash dubey</t>
+  </si>
+  <si>
+    <t>Ayush , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Kanishk , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Rushikesh , Soham , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Sanjay , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Soham , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>executive_00002 ,executive_00003</t>
+  </si>
+  <si>
+    <t>executive_00003</t>
+  </si>
+  <si>
+    <t>executive_00016 ,executive_00003</t>
+  </si>
+  <si>
+    <t>store_001018</t>
+  </si>
+  <si>
+    <t>store_001019</t>
+  </si>
+  <si>
+    <t>store_001020</t>
+  </si>
+  <si>
+    <t>store_001021</t>
+  </si>
+  <si>
+    <t>store_001022</t>
+  </si>
+  <si>
+    <t>store_001023</t>
+  </si>
+  <si>
+    <t>store_001024</t>
+  </si>
+  <si>
+    <t>store_001025</t>
+  </si>
+  <si>
+    <t>store_001026</t>
+  </si>
+  <si>
+    <t>store_001027</t>
+  </si>
+  <si>
+    <t>store_001028</t>
+  </si>
+  <si>
+    <t>store_001029</t>
+  </si>
+  <si>
+    <t>store_001030</t>
+  </si>
+  <si>
+    <t>store_001031</t>
+  </si>
+  <si>
+    <t>store_001032</t>
+  </si>
+  <si>
+    <t>store_001033</t>
+  </si>
+  <si>
+    <t>store_001034</t>
+  </si>
+  <si>
+    <t>store_001035</t>
+  </si>
+  <si>
+    <t>store_001036</t>
+  </si>
+  <si>
+    <t>store_001037</t>
+  </si>
+  <si>
+    <t>store_001038</t>
+  </si>
+  <si>
+    <t>store_001039</t>
+  </si>
+  <si>
+    <t>store_001040</t>
+  </si>
+  <si>
+    <t>store_001041</t>
+  </si>
+  <si>
+    <t>store_001042</t>
+  </si>
+  <si>
+    <t>store_001043</t>
+  </si>
+  <si>
+    <t>store_001044</t>
+  </si>
+  <si>
+    <t>store_001045</t>
+  </si>
+  <si>
+    <t>store_001046</t>
+  </si>
+  <si>
+    <t>store_001047</t>
+  </si>
+  <si>
+    <t>store_001048</t>
+  </si>
+  <si>
+    <t>store_001049</t>
+  </si>
+  <si>
+    <t>store_001050</t>
+  </si>
+  <si>
+    <t>store_001051</t>
+  </si>
+  <si>
+    <t>store_001052</t>
+  </si>
+  <si>
+    <t>store_001053</t>
+  </si>
+  <si>
+    <t>store_001054</t>
+  </si>
+  <si>
+    <t>store_001055</t>
+  </si>
+  <si>
+    <t>store_001056</t>
+  </si>
+  <si>
+    <t>store_001057</t>
+  </si>
+  <si>
+    <t>store_001058</t>
+  </si>
+  <si>
+    <t>store_001059</t>
+  </si>
+  <si>
+    <t>store_001060</t>
+  </si>
+  <si>
+    <t>store_001061</t>
+  </si>
+  <si>
+    <t>store_001062</t>
+  </si>
+  <si>
+    <t>store_001063</t>
+  </si>
+  <si>
+    <t>store_001064</t>
+  </si>
+  <si>
+    <t>store_001065</t>
+  </si>
+  <si>
+    <t>store_001066</t>
+  </si>
+  <si>
+    <t>store_001067</t>
   </si>
 </sst>
 </file>
@@ -7101,17 +7515,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1018"/>
+  <dimension ref="A1:F1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1006" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1015" sqref="F1015"/>
+    <sheetView tabSelected="1" topLeftCell="A1055" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1068" sqref="B1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.453125" style="1" bestFit="1" customWidth="1"/>
@@ -27557,6 +27971,1006 @@
         <v>2221</v>
       </c>
     </row>
+    <row r="1019" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1019" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1019" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1020" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1020" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="4" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="4" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1022" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1023" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1023" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1024" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1024" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1025" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1025" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1026" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1026" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1027" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1027" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1028" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1028" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1029" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1029" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1030" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1030" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1031" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1031" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1032" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1032" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1032" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1033" s="4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1034" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1034" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1035" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1035" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1036" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1036" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D1036" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1036" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1036" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1037" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1037" s="2" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1037" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1037" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1038" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1038" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1038" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1038" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1039" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C1039" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1039" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1040" s="2" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1040" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1040" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1041" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1041" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1041" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1042" s="4" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1042" s="2" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1042" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1043" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1043" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1043" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1043" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1044" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1044" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1044" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1044" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1045" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1045" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1045" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1045" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1046" s="4" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C1046" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1046" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1046" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1047" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1047" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1047" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1047" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1048" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C1048" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1048" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1049" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1049" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1049" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1050" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1050" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1050" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1051" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1051" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1051" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1052" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1052" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1052" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1053" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1053" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1054" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1054" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1055" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1055" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1055" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1056" s="4" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1056" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1056" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1057" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1057" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1057" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1058" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1058" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1058" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1059" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1059" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1059" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1060" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1060" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1060" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1061" s="4" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1061" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F1061" s="2" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1062" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1062" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1062" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1063" s="4" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1063" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1063" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1064" s="4" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1064" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1065" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1065" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F1065" s="2" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1066" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1066" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F1066" s="2" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1067" s="4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C1067" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1067" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F1067" s="2" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1068" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1068" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1068" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A80">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
